--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail3 Features.xlsx
@@ -5229,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5240,29 +5240,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5283,115 +5281,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5408,72 +5396,66 @@
         <v>3.11813288831468e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.7630518284475</v>
+        <v>2.052164190565485e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.61235256151028</v>
+        <v>7.62870661306949e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.052164190565485e-07</v>
+        <v>0.1036184133863031</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.62870661306949e-07</v>
+        <v>0.3138060987179795</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1036184133863031</v>
+        <v>0.1089642664093013</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3138060987179795</v>
+        <v>1.924879583915239</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1089642664093013</v>
+        <v>3.253357942967632</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.950609195542349</v>
+        <v>8.554880308710789</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.253357942967632</v>
+        <v>6.833131298679771e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.554880308710789</v>
+        <v>70686498476.9554</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.833131298679771e-19</v>
+        <v>1.695569353563285e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>70686498476.9554</v>
+        <v>3414.229447484803</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.695569353563285e-09</v>
+        <v>5.095471641332082e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>3414.229447484803</v>
+        <v>10.5775175988189</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.095471641332082e-05</v>
+        <v>1.078071451070105</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.5775175988189</v>
+        <v>0.005701011302907023</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.078071451070105</v>
+        <v>6.389145249182561</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005701011302907023</v>
+        <v>0.9583645301417687</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.389145249182561</v>
+        <v>0.7480309095546063</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9583645301417687</v>
+        <v>224</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.7480309095546063</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.879017556199212</v>
       </c>
     </row>
@@ -5488,72 +5470,66 @@
         <v>2.280864804444104e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.77877859544211</v>
+        <v>1.522043234683234e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.86840955479121</v>
+        <v>7.656358905597857e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.522043234683234e-07</v>
+        <v>0.1030685674412379</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.656358905597857e-07</v>
+        <v>0.3202380432414083</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1030685674412379</v>
+        <v>0.1129200400909609</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3202380432414083</v>
+        <v>1.925813301812197</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1129200400909609</v>
+        <v>3.375313602050961</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.950899896342187</v>
+        <v>8.216456886331583</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.375313602050961</v>
+        <v>7.4076163177865e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.216456886331583</v>
+        <v>65255202600.33575</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.4076163177865e-19</v>
+        <v>1.838703612703127e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>65255202600.33575</v>
+        <v>3154.341897166024</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.838703612703127e-09</v>
+        <v>5.248730193632094e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3154.341897166024</v>
+        <v>9.816320880564184</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.248730193632094e-05</v>
+        <v>1.19697233113806</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.816320880564184</v>
+        <v>0.005057684583193204</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.19697233113806</v>
+        <v>6.43440775944203</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005057684583193204</v>
+        <v>0.9606191019986259</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.43440775944203</v>
+        <v>0.8117674304895118</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9606191019986259</v>
+        <v>224</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8117674304895118</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.66771337173615</v>
       </c>
     </row>
@@ -5568,72 +5544,66 @@
         <v>1.660579864196696e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.763694225140632</v>
+        <v>1.129823914888127e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>15.04877647367798</v>
+        <v>7.67643485281623e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.129823914888127e-07</v>
+        <v>0.1024277327116793</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.67643485281623e-07</v>
+        <v>0.3303881484260087</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1024277327116793</v>
+        <v>0.1193808802387889</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3303881484260087</v>
+        <v>1.921224850637903</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1193808802387889</v>
+        <v>3.007139322405807</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.946840227885822</v>
+        <v>7.213945609938444</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.007139322405807</v>
+        <v>9.609524845566561e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.213945609938444</v>
+        <v>50572560467.37874</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.609524845566561e-19</v>
+        <v>2.367522611138895e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>50572560467.37874</v>
+        <v>2457.716576478261</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.367522611138895e-09</v>
+        <v>6.561922975481805e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2457.716576478261</v>
+        <v>9.516628937843903</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.561922975481805e-05</v>
+        <v>1.517943898213036</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.516628937843903</v>
+        <v>0.005942886014271208</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.517943898213036</v>
+        <v>6.441788565844136</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005942886014271208</v>
+        <v>0.9611092356498565</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.441788565844136</v>
+        <v>0.9118212085262273</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9611092356498565</v>
+        <v>231</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.9118212085262273</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>231</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.351845180723711</v>
       </c>
     </row>
@@ -5648,72 +5618,66 @@
         <v>1.203243068394855e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.656161403762292</v>
+        <v>8.36245005501574e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.78220632700123</v>
+        <v>7.690871317518897e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.36245005501574e-08</v>
+        <v>0.1007640336969995</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.690871317518897e-07</v>
+        <v>0.3429638291572681</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1007640336969995</v>
+        <v>0.1274902312058486</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3429638291572681</v>
+        <v>1.920688610107625</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1274902312058486</v>
+        <v>2.703131965041904</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.951156349317162</v>
+        <v>7.436638552851157</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.703131965041904</v>
+        <v>1.425904224908058e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.436638552851157</v>
+        <v>35050849238.44761</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.425904224908058e-18</v>
+        <v>3.404996428572001e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>35050849238.44761</v>
+        <v>1751.811792470079</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.404996428572001e-09</v>
+        <v>0.0001090121895181859</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1751.811792470079</v>
+        <v>9.823176480667586</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001090121895181859</v>
+        <v>1.663665390837341</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.823176480667586</v>
+        <v>0.01051910900763992</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.663665390837341</v>
+        <v>5.701196423133544</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01051910900763992</v>
+        <v>0.9612396669671884</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.701196423133544</v>
+        <v>0.9049364754262719</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9612396669671884</v>
+        <v>229</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.9049364754262719</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.220417002989492</v>
       </c>
     </row>
@@ -5728,72 +5692,66 @@
         <v>8.724520201377828e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.345956726428084</v>
+        <v>6.159227794305706e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>13.40690571295729</v>
+        <v>7.701049453660245e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.159227794305706e-08</v>
+        <v>0.09662948343796283</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.701049453660245e-07</v>
+        <v>0.355584844106651</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.09662948343796283</v>
+        <v>0.1354707804828892</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.355584844106651</v>
+        <v>1.925081580910018</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1354707804828892</v>
+        <v>2.777166110434419</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.950073441555126</v>
+        <v>6.99604064658322</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.777166110434419</v>
+        <v>1.611161424694048e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.99604064658322</v>
+        <v>31883966512.76001</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.611161424694048e-18</v>
+        <v>3.738191823268852e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>31883966512.76001</v>
+        <v>1637.886275762537</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.738191823268852e-09</v>
+        <v>0.0001143001534222594</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1637.886275762537</v>
+        <v>10.41580920535708</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001143001534222594</v>
+        <v>1.31004105369794</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.41580920535708</v>
+        <v>0.01240031864893446</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.31004105369794</v>
+        <v>4.898707138503953</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01240031864893446</v>
+        <v>0.9607004384573593</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.898707138503953</v>
+        <v>0.8988679412556065</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9607004384573593</v>
+        <v>227</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8988679412556065</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>227</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.089029784278258</v>
       </c>
     </row>
@@ -5808,72 +5766,66 @@
         <v>6.425770765203062e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-2.678253988862699</v>
+        <v>4.506019545840568e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9.980499174044953</v>
+        <v>7.708007560882875e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.506019545840568e-08</v>
+        <v>0.08766178009251409</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.708007560882875e-07</v>
+        <v>0.3623932644200808</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08766178009251409</v>
+        <v>0.1386931038666152</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3623932644200808</v>
+        <v>1.923415586830861</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1386931038666152</v>
+        <v>3.000849640291464</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.945611188177563</v>
+        <v>6.805087583618038</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.000849640291464</v>
+        <v>1.702849495969484e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.805087583618038</v>
+        <v>30786581225.02853</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.702849495969484e-18</v>
+        <v>3.89397988765332e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>30786581225.02853</v>
+        <v>1613.983882979052</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.89397988765332e-09</v>
+        <v>0.000123102934840734</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1613.983882979052</v>
+        <v>10.94096581396713</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000123102934840734</v>
+        <v>1.094218513325095</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.94096581396713</v>
+        <v>0.01473600393953541</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.094218513325095</v>
+        <v>4.157729731782544</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01473600393953541</v>
+        <v>0.9606633279002914</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.157729731782544</v>
+        <v>0.892873116882688</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9606633279002914</v>
+        <v>198</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.892873116882688</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.577346884157822</v>
       </c>
     </row>
@@ -5888,72 +5840,66 @@
         <v>4.958848241138013e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-1.645173252188437</v>
+        <v>3.262453507890056e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>4.615842749035099</v>
+        <v>7.712521340168471e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.262453507890056e-08</v>
+        <v>0.07069251470434827</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.712521340168471e-07</v>
+        <v>0.3503521112492872</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.07069251470434827</v>
+        <v>0.1274380374406023</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3503521112492872</v>
+        <v>1.927697233805022</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1274380374406023</v>
+        <v>2.744974057609099</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.948301307473595</v>
+        <v>6.847705646042888</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.744974057609099</v>
+        <v>1.681719407661661e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>6.847705646042888</v>
+        <v>30592802364.34014</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.681719407661661e-18</v>
+        <v>3.9023603691681e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>30592802364.34014</v>
+        <v>1573.954082182157</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.9023603691681e-09</v>
+        <v>0.0001298881383430454</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1573.954082182157</v>
+        <v>10.94824654940799</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001298881383430454</v>
+        <v>1.09660683552001</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.94824654940799</v>
+        <v>0.01556892512874536</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.09660683552001</v>
+        <v>3.850471222123013</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01556892512874536</v>
+        <v>0.9604192425177575</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.850471222123013</v>
+        <v>0.8932016277052786</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9604192425177575</v>
+        <v>196</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8932016277052786</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>196</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>3.046860084759493</v>
       </c>
     </row>
@@ -5968,72 +5914,66 @@
         <v>4.168919591524655e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.7010441429956159</v>
+        <v>2.326882341179061e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.2378676271176299</v>
+        <v>7.715173305305767e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.326882341179061e-08</v>
+        <v>0.04523840651945827</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.715173305305767e-07</v>
+        <v>0.3067098043114376</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.04523840651945827</v>
+        <v>0.09587839388408415</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3067098043114376</v>
+        <v>1.938558202156696</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.09587839388408415</v>
+        <v>3.034641881468372</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.952477439682004</v>
+        <v>6.938549392749989</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.034641881468372</v>
+        <v>1.637971477122677e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.938549392749989</v>
+        <v>30800782577.53704</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.637971477122677e-18</v>
+        <v>3.90929245372382e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>30800782577.53704</v>
+        <v>1553.924224385349</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.90929245372382e-09</v>
+        <v>0.0001239858856873733</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1553.924224385349</v>
+        <v>9.879890133409866</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001239858856873733</v>
+        <v>1.182853642863795</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.879890133409866</v>
+        <v>0.01210253867246597</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.182853642863795</v>
+        <v>4.146016823445553</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01210253867246597</v>
+        <v>0.9593691686168868</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.146016823445553</v>
+        <v>0.9000486417427332</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9593691686168868</v>
+        <v>229</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9000486417427332</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>229</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>3.22331097883737</v>
       </c>
     </row>
@@ -6048,72 +5988,66 @@
         <v>3.856102607754565e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.2954553365859994</v>
+        <v>1.654038779190576e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.213915719660324</v>
+        <v>7.716431837727737e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.654038779190576e-08</v>
+        <v>0.01837092813967594</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.716431837727737e-07</v>
+        <v>0.2463461684163132</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.01837092813967594</v>
+        <v>0.06088809737343152</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2463461684163132</v>
+        <v>1.934267320066562</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06088809737343152</v>
+        <v>2.9719636296943</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.950623314713994</v>
+        <v>6.940628602322978</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.9719636296943</v>
+        <v>1.636990247309468e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.940628602322978</v>
+        <v>29933612898.77534</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.636990247309468e-18</v>
+        <v>4.008208834188341e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>29933612898.77534</v>
+        <v>1466.777934964105</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.008208834188341e-09</v>
+        <v>0.000138530125122574</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1466.777934964105</v>
+        <v>8.957845018618825</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000138530125122574</v>
+        <v>1.598045093883649</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.957845018618825</v>
+        <v>0.01111607108162724</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.598045093883649</v>
+        <v>4.391137080449333</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01111607108162724</v>
+        <v>0.9578197990234473</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.391137080449333</v>
+        <v>0.9026209583092836</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9578197990234473</v>
+        <v>205</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9026209583092836</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.533328706871147</v>
       </c>
     </row>
@@ -6128,72 +6062,66 @@
         <v>3.80136586342832e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.2415557248408575</v>
+        <v>1.254679693483333e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.346389351916397</v>
+        <v>7.71670325289918e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.254679693483333e-08</v>
+        <v>-0.002877052759268523</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.71670325289918e-07</v>
+        <v>0.1934149893868087</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.002877052759268523</v>
+        <v>0.03735019567815961</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1934149893868087</v>
+        <v>1.930392480804117</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.03735019567815961</v>
+        <v>2.849591209711476</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.953757510193703</v>
+        <v>6.810250758091622</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.849591209711476</v>
+        <v>1.700268452626306e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.810250758091622</v>
+        <v>28025780870.92178</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.700268452626306e-18</v>
+        <v>4.254883729566267e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>28025780870.92178</v>
+        <v>1335.466323432605</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.254883729566267e-09</v>
+        <v>0.0001465524137282605</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1335.466323432605</v>
+        <v>9.61295790327387</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001465524137282605</v>
+        <v>1.517619187817703</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.61295790327387</v>
+        <v>0.01354275608684187</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.517619187817703</v>
+        <v>4.325119208548915</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01354275608684187</v>
+        <v>0.9566527452912781</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.325119208548915</v>
+        <v>0.910300219566424</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9566527452912781</v>
+        <v>158</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.910300219566424</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>3.537454285185762</v>
       </c>
     </row>
@@ -6208,72 +6136,66 @@
         <v>3.854844673688868e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.2561946304785908</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.343218082042539</v>
+        <v>7.716293931884952e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.01731681407863817</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.716293931884952e-07</v>
+        <v>0.1550976873556922</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.01731681407863817</v>
+        <v>0.02432340233891823</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1550976873556922</v>
+        <v>1.923634804948227</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02432340233891823</v>
+        <v>2.864929621050236</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.953699116487568</v>
+        <v>6.500628234353</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.864929621050236</v>
+        <v>1.866091968423902e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.500628234353</v>
+        <v>25798522388.39688</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.866091968423902e-18</v>
+        <v>4.612340026550774e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>25798522388.39688</v>
+        <v>1242.003182204108</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.612340026550774e-09</v>
+        <v>0.0001367355011604246</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1242.003182204108</v>
+        <v>10.88424934862004</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001367355011604246</v>
+        <v>1.148518701173553</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.88424934862004</v>
+        <v>0.01619862873864705</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.148518701173553</v>
+        <v>4.011211833809538</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01619862873864705</v>
+        <v>0.9563080908011508</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.011211833809538</v>
+        <v>0.9186263420754972</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9563080908011508</v>
+        <v>126</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9186263420754972</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>3.094464267699768</v>
       </c>
     </row>
@@ -6288,72 +6210,66 @@
         <v>3.937196632276138e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2453814981597781</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.386325392873222</v>
+        <v>7.715432321710439e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.0259398416905354</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.715432321710439e-07</v>
+        <v>0.1309723408763869</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0259398416905354</v>
+        <v>0.01781200113769235</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1309723408763869</v>
+        <v>1.923155386460499</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01781200113769235</v>
+        <v>2.753515886573826</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.953486426457576</v>
+        <v>6.475759842530184</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.753515886573826</v>
+        <v>2.256306494105451e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>6.475759842530184</v>
+        <v>21248326795.85199</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.256306494105451e-18</v>
+        <v>5.615060694745529e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>21248326795.85199</v>
+        <v>1018.702958952408</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.615060694745529e-09</v>
+        <v>0.000139247668138515</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1018.702958952408</v>
+        <v>11.46706004254201</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000139247668138515</v>
+        <v>1.052809972920909</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.46706004254201</v>
+        <v>0.0183101585186335</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.052809972920909</v>
+        <v>3.70201635566619</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0183101585186335</v>
+        <v>0.9562818184469865</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.70201635566619</v>
+        <v>0.9054147387089914</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9562818184469865</v>
+        <v>116</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9054147387089914</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>2.719364126082661</v>
       </c>
     </row>
@@ -6368,72 +6284,66 @@
         <v>4.010037016737974e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.204689353949095</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.443441412024789</v>
+        <v>7.714306190857223e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.02994091721225048</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.714306190857223e-07</v>
+        <v>0.1184461083518855</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.02994091721225048</v>
+        <v>0.01491785604348722</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1184461083518855</v>
+        <v>1.92301169737671</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01491785604348722</v>
+        <v>2.670442300136361</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.952204516000863</v>
+        <v>6.333823991028641</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.670442300136361</v>
+        <v>3.047369359470429e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>6.333823991028641</v>
+        <v>16340602304.13346</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.047369359470429e-18</v>
+        <v>7.305640561185927e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>16340602304.13346</v>
+        <v>813.6941939414314</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.305640561185927e-09</v>
+        <v>0.0001373705075485614</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>813.6941939414314</v>
+        <v>11.11015834589822</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001373705075485614</v>
+        <v>1.086196824241825</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.11015834589822</v>
+        <v>0.0169564135589225</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.086196824241825</v>
+        <v>3.852677943188977</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0169564135589225</v>
+        <v>0.9569608227730357</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.852677943188977</v>
+        <v>0.9090803694351715</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9569608227730357</v>
+        <v>116</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9090803694351715</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.808151508466254</v>
       </c>
     </row>
@@ -6448,72 +6358,66 @@
         <v>4.055216029951269e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.145799572884785</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.48964076372433</v>
+        <v>7.713083305804618e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.02989978558947332</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.713083305804618e-07</v>
+        <v>0.1164689897436671</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.02989978558947332</v>
+        <v>0.01445104827075096</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1164689897436671</v>
+        <v>1.918627651808412</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01445104827075096</v>
+        <v>2.671354237501568</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.946484565743295</v>
+        <v>5.815477558869785</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.671354237501568</v>
+        <v>4.608988014833755e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.815477558869785</v>
+        <v>10758360862.03181</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>4.608988014833755e-18</v>
+        <v>1.109582019050057e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>10758360862.03181</v>
+        <v>533.4550045783017</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.109582019050057e-08</v>
+        <v>0.0001471001235819038</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>533.4550045783017</v>
+        <v>11.13479479393604</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001471001235819038</v>
+        <v>1.212249351087463</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.13479479393604</v>
+        <v>0.01823801098779703</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.212249351087463</v>
+        <v>4.08835957488176</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01823801098779703</v>
+        <v>0.9589361760144416</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.08835957488176</v>
+        <v>0.9351451543755934</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9589361760144416</v>
+        <v>116</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9351451543755934</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.254379970853118</v>
       </c>
     </row>
@@ -6528,72 +6432,66 @@
         <v>4.066093948895548e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.08192861236089084</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.510054993895266</v>
+        <v>7.71194214019444e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.02542495929560728</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.71194214019444e-07</v>
+        <v>0.1266827147583129</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02542495929560728</v>
+        <v>0.01667934148252321</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1266827147583129</v>
+        <v>1.915909750645363</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01667934148252321</v>
+        <v>2.530937999260267</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.948677033705546</v>
+        <v>5.484488927142108</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.530937999260267</v>
+        <v>7.399803270184106e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.484488927142108</v>
+        <v>6647768659.418271</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>7.399803270184106e-18</v>
+        <v>1.79614945222175e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>6647768659.418271</v>
+        <v>327.0182342567185</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.79614945222175e-08</v>
+        <v>0.0001777936849520866</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>327.0182342567185</v>
+        <v>12.29362583715683</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001777936849520866</v>
+        <v>1.195899003363665</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.29362583715683</v>
+        <v>0.0268705349870009</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.195899003363665</v>
+        <v>3.955674737927694</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0268705349870009</v>
+        <v>0.9587292868008006</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.955674737927694</v>
+        <v>0.9634767123710687</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9587292868008006</v>
+        <v>114</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9634767123710687</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>3.474781972247347</v>
       </c>
     </row>
@@ -6608,72 +6506,66 @@
         <v>4.048207926325675e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.03094982424070234</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.496484817013839</v>
+        <v>7.711073468307093e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.01670646547690828</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.711073468307093e-07</v>
+        <v>0.1486249767247787</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01670646547690828</v>
+        <v>0.02234148957080468</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1486249767247787</v>
+        <v>1.915875393770327</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02234148957080468</v>
+        <v>2.570207316025046</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.94678276976453</v>
+        <v>4.951620958160175</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.570207316025046</v>
+        <v>9.163524375984679e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.951620958160175</v>
+        <v>5654781011.419138</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.163524375984679e-18</v>
+        <v>2.118385199811901e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>5654781011.419138</v>
+        <v>293.0178796887511</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.118385199811901e-08</v>
+        <v>0.00019706483524525</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>293.0178796887511</v>
+        <v>13.96538542449654</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.00019706483524525</v>
+        <v>1.008933742699053</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>13.96538542449654</v>
+        <v>0.03843394698769067</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.008933742699053</v>
+        <v>3.483180434567358</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.03843394698769067</v>
+        <v>0.9577814453677678</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.483180434567358</v>
+        <v>1.013418880212439</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9577814453677678</v>
+        <v>114</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.013418880212439</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.142048419006863</v>
       </c>
     </row>
@@ -6688,72 +6580,66 @@
         <v>4.023758440182393e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.009189331176308022</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.471490143998417</v>
+        <v>7.710616848377717e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>-0.005626162375176161</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.710616848377717e-07</v>
+        <v>0.1742130168721887</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.005626162375176161</v>
+        <v>0.03035117811716153</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1742130168721887</v>
+        <v>1.913305094172929</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03035117811716153</v>
+        <v>2.427724130936282</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.939726101399923</v>
+        <v>4.88412378177734</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.427724130936282</v>
+        <v>9.418548972999714e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.88412378177734</v>
+        <v>5563370893.156266</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>9.418548972999714e-18</v>
+        <v>2.151052512983443e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>5563370893.156266</v>
+        <v>291.5144105696472</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.151052512983443e-08</v>
+        <v>0.0001947103864531954</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>291.5144105696472</v>
+        <v>13.38508052434439</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001947103864531954</v>
+        <v>1.013794661311205</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.38508052434439</v>
+        <v>0.03488438695213584</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.013794661311205</v>
+        <v>3.217650632436514</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03488438695213584</v>
+        <v>0.955712112961115</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.217650632436514</v>
+        <v>1.112307832172686</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.955712112961115</v>
+        <v>108</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.112307832172686</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>2.35116239593789</v>
       </c>
     </row>
@@ -6768,72 +6654,66 @@
         <v>4.023524247451951e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.007644856085181289</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.469721815174582</v>
+        <v>7.71060137033655e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>0.004387016742245564</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.71060137033655e-07</v>
+        <v>0.190989849149802</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.004387016742245564</v>
+        <v>0.03648055032765882</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.190989849149802</v>
+        <v>1.909912136607612</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.03648055032765882</v>
+        <v>2.305562839815466</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.927087121565372</v>
+        <v>5.302742305358388</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.305562839815466</v>
+        <v>1.508401949510269e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.302742305358388</v>
+        <v>3456041119.038944</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.508401949510269e-17</v>
+        <v>3.46446150109136e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>3456041119.038944</v>
+        <v>180.166850599304</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.46446150109136e-08</v>
+        <v>0.0002186774559014873</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>180.166850599304</v>
+        <v>9.815784930686533</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002186774559014873</v>
+        <v>1.577119765577547</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.815784930686533</v>
+        <v>0.02106949279762511</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.577119765577547</v>
+        <v>3.073309063708746</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02106949279762511</v>
+        <v>0.955523314841219</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.073309063708746</v>
+        <v>1.276180238172349</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.955523314841219</v>
+        <v>88</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.276180238172349</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.160508230169316</v>
       </c>
     </row>
@@ -6848,72 +6728,66 @@
         <v>4.059705870652112e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0008749517307887949</v>
+        <v>1.263770815888833e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.473829086457788</v>
+        <v>7.710912963238706e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.263770815888833e-08</v>
+        <v>0.0103759769426377</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.710912963238706e-07</v>
+        <v>0.1951594100060778</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0103759769426377</v>
+        <v>0.03819025907836191</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1951594100060778</v>
+        <v>1.908530982723505</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.03819025907836191</v>
+        <v>2.364511775527694</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.924512142916328</v>
+        <v>4.465829445068141</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.364511775527694</v>
+        <v>2.126737378978617e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.465829445068141</v>
+        <v>2399965363.90271</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.126737378978617e-17</v>
+        <v>5.003540122319927e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>2399965363.90271</v>
+        <v>122.4965372843091</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>5.003540122319927e-08</v>
+        <v>0.0002169029105839206</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>122.4965372843091</v>
+        <v>9.544655000882102</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0002169029105839206</v>
+        <v>1.580350715943057</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.544655000882102</v>
+        <v>0.019759950393197</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.580350715943057</v>
+        <v>2.850779325694849</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.019759950393197</v>
+        <v>0.9568128279552506</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.850779325694849</v>
+        <v>1.266304512777409</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9568128279552506</v>
+        <v>88</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.266304512777409</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.6213754042196653</v>
       </c>
     </row>
@@ -6928,72 +6802,66 @@
         <v>4.12067820559408e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.02337805728352456</v>
+        <v>1.287654234430211e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.462018511662852</v>
+        <v>7.711392720646121e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.287654234430211e-08</v>
+        <v>0.01256668540686135</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.711392720646121e-07</v>
+        <v>0.1935580013264193</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01256668540686135</v>
+        <v>0.03762146372335758</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1935580013264193</v>
+        <v>1.91020166682537</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03762146372335758</v>
+        <v>2.178267520268732</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.925954925162628</v>
+        <v>4.214336575890577</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.178267520268732</v>
+        <v>2.388139517866228e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.214336575890577</v>
+        <v>2112469598.115</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.388139517866228e-17</v>
+        <v>5.60053755763359e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>2112469598.115</v>
+        <v>106.5713899582589</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.60053755763359e-08</v>
+        <v>0.0001884501458409572</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>106.5713899582589</v>
+        <v>10.5828554229757</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001884501458409572</v>
+        <v>1.184477476705903</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.5828554229757</v>
+        <v>0.02110581874060931</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.184477476705903</v>
+        <v>2.713665627493592</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.02110581874060931</v>
+        <v>0.9570832725316282</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.713665627493592</v>
+        <v>1.317115037274342</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9570832725316282</v>
+        <v>84</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.317115037274342</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.4541050661758385</v>
       </c>
     </row>
@@ -7008,72 +6876,66 @@
         <v>4.190442802330466e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.05200014246942953</v>
+        <v>1.319178097708096e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.440393318304631</v>
+        <v>7.71191915716944e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.319178097708096e-08</v>
+        <v>0.01267933422789585</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.71191915716944e-07</v>
+        <v>0.1904381213945554</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.01267933422789585</v>
+        <v>0.03642728238819742</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1904381213945554</v>
+        <v>1.9078100776925</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.03642728238819742</v>
+        <v>2.352232126190533</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.926470413996343</v>
+        <v>4.157289143236183</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.352232126190533</v>
+        <v>2.454130583397976e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.157289143236183</v>
+        <v>2013885272.099062</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.454130583397976e-17</v>
+        <v>5.932901596997369e-08</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>2013885272.099062</v>
+        <v>99.53300575554158</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>5.932901596997369e-08</v>
+        <v>0.0001842729778879996</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>99.53300575554158</v>
+        <v>11.48552950632438</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001842729778879996</v>
+        <v>1.075160972960783</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.48552950632438</v>
+        <v>0.02430880992945698</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.075160972960783</v>
+        <v>2.504554231339075</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.02430880992945698</v>
+        <v>0.9568950381086054</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.504554231339075</v>
+        <v>1.325310967030188</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9568950381086054</v>
+        <v>84</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.325310967030188</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3890277669709057</v>
       </c>
     </row>
@@ -7088,72 +6950,66 @@
         <v>4.262332354660817e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.07974719842133247</v>
+        <v>1.331350191326499e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.420810675383167</v>
+        <v>7.71246113703519e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.331350191326499e-08</v>
+        <v>0.01309508432632358</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.71246113703519e-07</v>
+        <v>0.1871988128685325</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.01309508432632358</v>
+        <v>0.03521475699264672</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1871988128685325</v>
+        <v>1.907825343128063</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.03521475699264672</v>
+        <v>2.311006957605528</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.926455962992089</v>
+        <v>4.150316336470522</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.311006957605528</v>
+        <v>2.462383714843705e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.150316336470522</v>
+        <v>2009642093.333831</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.462383714843705e-17</v>
+        <v>5.942226399349977e-08</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>2009642093.333831</v>
+        <v>99.44733921508708</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>5.942226399349977e-08</v>
+        <v>0.0001776295796513629</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>99.44733921508708</v>
+        <v>11.04481389321377</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001776295796513629</v>
+        <v>1.105841020874956</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.04481389321377</v>
+        <v>0.02166866187494997</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.105841020874956</v>
+        <v>2.570732929397127</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02166866187494997</v>
+        <v>0.957743562850908</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.570732929397127</v>
+        <v>1.309453413515366</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.957743562850908</v>
+        <v>80</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.309453413515366</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3584050012614464</v>
       </c>
     </row>
@@ -7168,72 +7024,66 @@
         <v>4.337340879201455e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1035244750486511</v>
+        <v>1.339936579061534e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.409999529177292</v>
+        <v>7.713046191319208e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.339936579061534e-08</v>
+        <v>0.01417768900548751</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.713046191319208e-07</v>
+        <v>0.1837237326266293</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.01417768900548751</v>
+        <v>0.03395511817238404</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1837237326266293</v>
+        <v>1.907626910497693</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03395511817238404</v>
+        <v>2.25867387325885</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.931133862912793</v>
+        <v>4.150053166669414</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.25867387325885</v>
+        <v>2.462696021965209e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.150053166669414</v>
+        <v>2030618072.025824</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.462696021965209e-17</v>
+        <v>5.879269604809489e-08</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>2030618072.025824</v>
+        <v>101.547047991867</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.879269604809489e-08</v>
+        <v>0.0001738991503371602</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>101.547047991867</v>
+        <v>9.345728452436061</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001738991503371602</v>
+        <v>1.298006509636195</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.345728452436061</v>
+        <v>0.01518881093753463</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.298006509636195</v>
+        <v>2.82115862309753</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01518881093753463</v>
+        <v>0.9579443670292894</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.82115862309753</v>
+        <v>1.331477831592767</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9579443670292894</v>
+        <v>78</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.331477831592767</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3437978494917587</v>
       </c>
     </row>
@@ -7610,7 +7460,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.339309574267148</v>
+        <v>1.331946316254202</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.399182107983341</v>
@@ -7699,7 +7549,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.357306714907986</v>
+        <v>1.341700252580816</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.258056015340174</v>
@@ -7788,7 +7638,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.380158162806839</v>
+        <v>1.367914412213168</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.053250763824583</v>
@@ -7877,7 +7727,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.371828961263291</v>
+        <v>1.357357774343837</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.346724386888452</v>
@@ -7966,7 +7816,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.3770159968305</v>
+        <v>1.357414705797309</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.344190491852815</v>
@@ -8055,7 +7905,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.375724856788764</v>
+        <v>1.355663388737981</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.373661141296049</v>
@@ -8144,7 +7994,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.392794490763319</v>
+        <v>1.375239431253876</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.340566517849961</v>
@@ -8233,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409577550010839</v>
+        <v>1.381366294994322</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.132031642458087</v>
@@ -8322,7 +8172,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.39888664451177</v>
+        <v>1.382695999592739</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.334377529542439</v>
@@ -8411,7 +8261,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.429950859590781</v>
+        <v>1.410672498716369</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.220925408123553</v>
@@ -8500,7 +8350,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.45513610114183</v>
+        <v>1.431066947622214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.081599573166497</v>
@@ -8589,7 +8439,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.476658748372639</v>
+        <v>1.452359511096375</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.261601865420386</v>
@@ -8678,7 +8528,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.478609717820371</v>
+        <v>1.448579828238421</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.209948970042019</v>
@@ -8767,7 +8617,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.474266820691336</v>
+        <v>1.458718002577309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.359903640976794</v>
@@ -8856,7 +8706,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481160273006434</v>
+        <v>1.461439214533007</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.301101448824892</v>
@@ -8945,7 +8795,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.453300435664774</v>
+        <v>1.436644535045872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.307693018867228</v>
@@ -9034,7 +8884,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.466011593627635</v>
+        <v>1.446529619152205</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.364792696263113</v>
@@ -9123,7 +8973,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.460371764817662</v>
+        <v>1.44026357141826</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.15709603624381</v>
@@ -9212,7 +9062,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.484311671860459</v>
+        <v>1.458565552469824</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.30377133658575</v>
@@ -9301,7 +9151,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458451719263075</v>
+        <v>1.450143827717764</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.133910498645639</v>
@@ -9390,7 +9240,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.49230817535099</v>
+        <v>1.48195766808685</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.326474115090833</v>
@@ -9479,7 +9329,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492425496228969</v>
+        <v>1.477727547310339</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.357657184714087</v>
@@ -9568,7 +9418,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.510088460984232</v>
+        <v>1.490482894420311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.198420033666173</v>
@@ -9657,7 +9507,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.51373827869231</v>
+        <v>1.490327741967987</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.391121241966032</v>
@@ -9746,7 +9596,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.517801197773168</v>
+        <v>1.497651226525879</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.459619747208511</v>
@@ -9835,7 +9685,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.519933732230147</v>
+        <v>1.501033998797302</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.361780538503114</v>
@@ -9924,7 +9774,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.521263956414056</v>
+        <v>1.498126439761771</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.377707665184936</v>
@@ -10013,7 +9863,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570185925513736</v>
+        <v>1.544804643112569</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.207356229487751</v>
@@ -10102,7 +9952,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.549343986678946</v>
+        <v>1.527499081639429</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.489442431906159</v>
@@ -10191,7 +10041,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.551420733878383</v>
+        <v>1.531705263856981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.407343273814836</v>
@@ -10280,7 +10130,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554403751733233</v>
+        <v>1.540273169773148</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.22809598280401</v>
@@ -10369,7 +10219,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.549054521988944</v>
+        <v>1.539123514296532</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.279826575733871</v>
@@ -10458,7 +10308,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.546834918512171</v>
+        <v>1.537198016283351</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.411777238652619</v>
@@ -10547,7 +10397,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.566328616322157</v>
+        <v>1.538541678345628</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.187856082382203</v>
@@ -10636,7 +10486,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.56363936724879</v>
+        <v>1.541565276453714</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.421703414496464</v>
@@ -10725,7 +10575,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.558312373714021</v>
+        <v>1.53642738883576</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.34496729040021</v>
@@ -10814,7 +10664,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562273583832322</v>
+        <v>1.54499006829277</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.358204328209863</v>
@@ -10903,7 +10753,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.542983244918134</v>
+        <v>1.530540374279242</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.395484289300883</v>
@@ -10992,7 +10842,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547613825923941</v>
+        <v>1.536889350356795</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.385549554141944</v>
@@ -11081,7 +10931,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.547635727001248</v>
+        <v>1.533562625240701</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.381688777228295</v>
@@ -11170,7 +11020,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.548097188574176</v>
+        <v>1.535920946593455</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.371832003705141</v>
@@ -11259,7 +11109,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.545877603530299</v>
+        <v>1.533478230352462</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.354943492462784</v>
@@ -11348,7 +11198,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546582960289612</v>
+        <v>1.525572496488282</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.435368949861534</v>
@@ -11437,7 +11287,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.525949134201551</v>
+        <v>1.500545086634651</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.302708707932581</v>
@@ -11526,7 +11376,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.495278321655064</v>
+        <v>1.474763257416212</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.342912583350732</v>
@@ -11615,7 +11465,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.530892956577508</v>
+        <v>1.506120098851053</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.354161514723234</v>
@@ -11704,7 +11554,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.551918816462046</v>
+        <v>1.51901876484976</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.420400347479471</v>
@@ -11793,7 +11643,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561991716654411</v>
+        <v>1.520766377525634</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.489901371779603</v>
@@ -11882,7 +11732,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.543148613372143</v>
+        <v>1.512115240189978</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.193488316623782</v>
@@ -11971,7 +11821,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.52302651804251</v>
+        <v>1.494817519253415</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.439338016453797</v>
@@ -12060,7 +11910,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.499940554883737</v>
+        <v>1.479209198480268</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.411716708130202</v>
@@ -12149,7 +11999,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.490575092719262</v>
+        <v>1.467592411915191</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.466277451527901</v>
@@ -12238,7 +12088,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.472457264420257</v>
+        <v>1.450296026653144</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.322196797950332</v>
@@ -12327,7 +12177,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.466526006043888</v>
+        <v>1.437608999457556</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.395110357113989</v>
@@ -12416,7 +12266,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.45806320055901</v>
+        <v>1.431059060015342</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.424307152790983</v>
@@ -12505,7 +12355,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.436638028577817</v>
+        <v>1.413071160152046</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.382483507765103</v>
@@ -12594,7 +12444,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.434150538364607</v>
+        <v>1.409960836665446</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.445816245394537</v>
@@ -12683,7 +12533,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.446408495085791</v>
+        <v>1.418216693376721</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.141087557096869</v>
@@ -12772,7 +12622,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.458099945379161</v>
+        <v>1.426437057654862</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.192943874242701</v>
@@ -12861,7 +12711,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.450202609788544</v>
+        <v>1.420880893454144</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.374372624912362</v>
@@ -12950,7 +12800,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.443461879641018</v>
+        <v>1.405298994267466</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.335337719854811</v>
@@ -13039,7 +12889,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.431811177736839</v>
+        <v>1.391358037719895</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.405912692186603</v>
@@ -13128,7 +12978,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.440051052526478</v>
+        <v>1.398852178962933</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.265196003243993</v>
@@ -13217,7 +13067,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.462073918912654</v>
+        <v>1.415718262932275</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.415872284428674</v>
@@ -13306,7 +13156,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.488683837562338</v>
+        <v>1.426443605919226</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.067762564192139</v>
@@ -13395,7 +13245,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.473034500407091</v>
+        <v>1.416312804050825</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.257229646578723</v>
@@ -13484,7 +13334,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.469853856288555</v>
+        <v>1.412507981405528</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.20449803524877</v>
@@ -13573,7 +13423,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.48430583803987</v>
+        <v>1.429853446458301</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.305472719924032</v>
@@ -13859,7 +13709,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.358852504685181</v>
+        <v>1.323655887091153</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.49968211335099</v>
@@ -13948,7 +13798,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.362602208835783</v>
+        <v>1.318553163856576</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.109048698846776</v>
@@ -14037,7 +13887,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.376444264306198</v>
+        <v>1.329498565154148</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.535299161471208</v>
@@ -14126,7 +13976,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.396714915375207</v>
+        <v>1.34670189250044</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.716667812991887</v>
@@ -14215,7 +14065,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.411055084246385</v>
+        <v>1.355793469643045</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.718896020751175</v>
@@ -14304,7 +14154,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.418184534368902</v>
+        <v>1.362763922400983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.898688526387892</v>
@@ -14393,7 +14243,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.431319481138616</v>
+        <v>1.376234196571418</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.69662181217857</v>
@@ -14482,7 +14332,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.455939367249607</v>
+        <v>1.394876544765889</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.133646914037055</v>
@@ -14571,7 +14421,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.465408989992295</v>
+        <v>1.408243047099241</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.69169763800033</v>
@@ -14660,7 +14510,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45686163126035</v>
+        <v>1.398272452198012</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.716161496452302</v>
@@ -14749,7 +14599,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456826109634946</v>
+        <v>1.397326013353159</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.08622922556541</v>
@@ -14838,7 +14688,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.470926369575772</v>
+        <v>1.41156543869594</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.147203271335558</v>
@@ -14927,7 +14777,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.480587257903108</v>
+        <v>1.421676564020356</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.166651958849894</v>
@@ -15016,7 +14866,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.481678084100957</v>
+        <v>1.423809607873771</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.561020874596332</v>
@@ -15105,7 +14955,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.487117135411223</v>
+        <v>1.43035676082353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.086548120606098</v>
@@ -15194,7 +15044,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.470989101920685</v>
+        <v>1.424140861689901</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.648198181892824</v>
@@ -15283,7 +15133,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.470872598264741</v>
+        <v>1.428815979312726</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.690784672546166</v>
@@ -15372,7 +15222,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.474315075386521</v>
+        <v>1.429708575762184</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.787110162900457</v>
@@ -15461,7 +15311,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.464630651796016</v>
+        <v>1.421881625084507</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.87606503732217</v>
@@ -15550,7 +15400,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.459813420587834</v>
+        <v>1.428475829268974</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.934669682701544</v>
@@ -15639,7 +15489,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459590427443602</v>
+        <v>1.424942896506626</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.799540581001194</v>
@@ -15728,7 +15578,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.456676319892671</v>
+        <v>1.418509699097919</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.832974069567971</v>
@@ -15817,7 +15667,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.457205970539001</v>
+        <v>1.423423457760435</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.831366138421513</v>
@@ -15906,7 +15756,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.448713513198713</v>
+        <v>1.413637398488595</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.929928752817468</v>
@@ -15995,7 +15845,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.454275165383112</v>
+        <v>1.424464015506255</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.011882003182649</v>
@@ -16084,7 +15934,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.459710098588719</v>
+        <v>1.427241202406734</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.93348801338915</v>
@@ -16173,7 +16023,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.43526274637043</v>
+        <v>1.403229326505566</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.279476581841291</v>
@@ -16262,7 +16112,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.438108860466755</v>
+        <v>1.409766696207515</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.299558073255799</v>
@@ -16351,7 +16201,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.435541906124521</v>
+        <v>1.414782513868596</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.303665271831526</v>
@@ -16440,7 +16290,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.402808334511886</v>
+        <v>1.383450977725387</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.211496464093899</v>
@@ -16529,7 +16379,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.414688681379848</v>
+        <v>1.399176508368833</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.298876067606826</v>
@@ -16618,7 +16468,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.41942939061378</v>
+        <v>1.406069684199432</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.228749494662919</v>
@@ -16707,7 +16557,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.420463742425987</v>
+        <v>1.406255880590826</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.287059282773398</v>
@@ -16796,7 +16646,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.420184391412714</v>
+        <v>1.395116060899304</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.221632498447584</v>
@@ -16885,7 +16735,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.406062341825849</v>
+        <v>1.379233233743453</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.3259186712851</v>
@@ -16974,7 +16824,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.410796641636179</v>
+        <v>1.384643420675223</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.377870434985537</v>
@@ -17063,7 +16913,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.426045194931902</v>
+        <v>1.396754510200218</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.37125615076557</v>
@@ -17152,7 +17002,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.428955371670247</v>
+        <v>1.396241618374771</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.403618327266509</v>
@@ -17241,7 +17091,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433910746921748</v>
+        <v>1.400772809123266</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.469250510969135</v>
@@ -17330,7 +17180,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.426971500445452</v>
+        <v>1.397320931135869</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.292629902312573</v>
@@ -17419,7 +17269,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.430488282803133</v>
+        <v>1.402205277308347</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.305167111903956</v>
@@ -17508,7 +17358,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.462108391614783</v>
+        <v>1.431620154913993</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.313076938947299</v>
@@ -17597,7 +17447,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.455654280280452</v>
+        <v>1.42027511093353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.505722331480258</v>
@@ -17686,7 +17536,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.46755519188971</v>
+        <v>1.423911128983511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.550038287477151</v>
@@ -17775,7 +17625,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.493748763172082</v>
+        <v>1.446611887856314</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.787381602204016</v>
@@ -17864,7 +17714,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498261005089783</v>
+        <v>1.450733561731896</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.758975486134042</v>
@@ -17953,7 +17803,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.502978154828077</v>
+        <v>1.451795084909336</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.687234503894195</v>
@@ -18042,7 +17892,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.508132577765933</v>
+        <v>1.453774884721262</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.727639332309002</v>
@@ -18131,7 +17981,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.508000487425968</v>
+        <v>1.458928224286424</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.339796144591763</v>
@@ -18220,7 +18070,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517860045012667</v>
+        <v>1.475916734417233</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.748224566155992</v>
@@ -18309,7 +18159,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.514118932204785</v>
+        <v>1.473413272072292</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.718345447859205</v>
@@ -18398,7 +18248,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.499241758457394</v>
+        <v>1.464688248410672</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.751092132715395</v>
@@ -18487,7 +18337,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.498461451106598</v>
+        <v>1.46094411008032</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.773484574648023</v>
@@ -18576,7 +18426,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.511483198656879</v>
+        <v>1.460094315929547</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.429708236911807</v>
@@ -18665,7 +18515,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.5130346743322</v>
+        <v>1.461197523410302</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.666544978404648</v>
@@ -18754,7 +18604,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.515499906823794</v>
+        <v>1.464051548199774</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.860772501596336</v>
@@ -18843,7 +18693,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.509457452588499</v>
+        <v>1.452953800365609</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.667176680463241</v>
@@ -18932,7 +18782,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.512036076769525</v>
+        <v>1.453005205244953</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.573042320509242</v>
@@ -19021,7 +18871,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.504029863094622</v>
+        <v>1.448252618962693</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.534886901746654</v>
@@ -19110,7 +18960,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.515441921077363</v>
+        <v>1.456515823831876</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.823491626731633</v>
@@ -19199,7 +19049,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.506628806224063</v>
+        <v>1.443946355233186</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.880924105300086</v>
@@ -19288,7 +19138,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.501567111676501</v>
+        <v>1.435358606454012</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.010116646013052</v>
@@ -19377,7 +19227,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.508853108379358</v>
+        <v>1.44318668511104</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.371151149643008</v>
@@ -19466,7 +19316,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.517855434177687</v>
+        <v>1.450245140370068</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.996795956127979</v>
@@ -19555,7 +19405,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.516465450535835</v>
+        <v>1.438232069186833</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.665228805033844</v>
@@ -19644,7 +19494,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.52494272337841</v>
+        <v>1.446211880157061</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.196007398986946</v>
@@ -19733,7 +19583,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.534622314040145</v>
+        <v>1.453811849507515</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.938617304637065</v>
@@ -19822,7 +19672,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.54723654939572</v>
+        <v>1.470326819239558</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.108253783423283</v>
@@ -20108,7 +19958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.496837453682415</v>
+        <v>1.463164278331363</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.969574426787704</v>
@@ -20197,7 +20047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504874486426934</v>
+        <v>1.462330410060019</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.707671945187246</v>
@@ -20286,7 +20136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.521633373761462</v>
+        <v>1.474163102918362</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.018470150839546</v>
@@ -20375,7 +20225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.540841223632677</v>
+        <v>1.485657324022356</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.184966274786642</v>
@@ -20464,7 +20314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.562122515184805</v>
+        <v>1.494432853955174</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.287355422934253</v>
@@ -20553,7 +20403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570429522355809</v>
+        <v>1.503900423110382</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.082761412413463</v>
@@ -20642,7 +20492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.599238309193339</v>
+        <v>1.52711387938041</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.860574398047491</v>
@@ -20731,7 +20581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605676168348585</v>
+        <v>1.528779440179389</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.992887053240048</v>
@@ -20820,7 +20670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596497811717655</v>
+        <v>1.52579033485354</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.001074829985533</v>
@@ -20909,7 +20759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.605546176712434</v>
+        <v>1.529211770707382</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.322735609230026</v>
@@ -20998,7 +20848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609672512317862</v>
+        <v>1.533727844417276</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.816817732821226</v>
@@ -21087,7 +20937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.623390030103722</v>
+        <v>1.549809131576351</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.272191980585655</v>
@@ -21176,7 +21026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629300527859591</v>
+        <v>1.557398685231449</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.168688810819157</v>
@@ -21265,7 +21115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.638806537139974</v>
+        <v>1.570069653167413</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.105564624877023</v>
@@ -21354,7 +21204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653904272352628</v>
+        <v>1.572810306485739</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.128327294027708</v>
@@ -21443,7 +21293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.639558134798069</v>
+        <v>1.556620064416569</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.307402173589443</v>
@@ -21532,7 +21382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64017227943856</v>
+        <v>1.559090704651113</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.12294645937658</v>
@@ -21621,7 +21471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.620544375251009</v>
+        <v>1.54527224524846</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.330654534343861</v>
@@ -21710,7 +21560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625652193674719</v>
+        <v>1.550604626619881</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.290581838029471</v>
@@ -21799,7 +21649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.612342046586742</v>
+        <v>1.545772971249105</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.820555440773625</v>
@@ -21888,7 +21738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.616451438835292</v>
+        <v>1.541588191559822</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.244748114847537</v>
@@ -21977,7 +21827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.620963029739644</v>
+        <v>1.543893950302879</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.226509496852002</v>
@@ -22066,7 +21916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.634281577709043</v>
+        <v>1.548708197664087</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.27460335079874</v>
@@ -22155,7 +22005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.626737390359869</v>
+        <v>1.548438619638837</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.123032898949407</v>
@@ -22244,7 +22094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.623856058722474</v>
+        <v>1.548002096273949</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.992835190274362</v>
@@ -22333,7 +22183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63055462748898</v>
+        <v>1.552477637950487</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.157366411944431</v>
@@ -22422,7 +22272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.611529743110534</v>
+        <v>1.536267073228511</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.808724499600422</v>
@@ -22511,7 +22361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621399082584867</v>
+        <v>1.546417000153954</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.027427806100775</v>
@@ -22600,7 +22450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.618589213231096</v>
+        <v>1.54670401799562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.996215809924123</v>
@@ -22689,7 +22539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629067684134479</v>
+        <v>1.5635668378186</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.019905732044322</v>
@@ -22778,7 +22628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.642199640016526</v>
+        <v>1.584122665599626</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.787458510716208</v>
@@ -22867,7 +22717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632103757819052</v>
+        <v>1.572936125090636</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.919514874651651</v>
@@ -22956,7 +22806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634001721510737</v>
+        <v>1.575703879873902</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.926844948748495</v>
@@ -23045,7 +22895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.611032167061718</v>
+        <v>1.548665092689083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.655776539021334</v>
@@ -23134,7 +22984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.602625748451207</v>
+        <v>1.542814574259255</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.857665291844628</v>
@@ -23223,7 +23073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.601782178023232</v>
+        <v>1.546181218170925</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.889470089559075</v>
@@ -23312,7 +23162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599973551380862</v>
+        <v>1.546616652441571</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.829979559383001</v>
@@ -23401,7 +23251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.595755180727619</v>
+        <v>1.54146618785272</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.835149969003885</v>
@@ -23490,7 +23340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.605096611319773</v>
+        <v>1.543083824662868</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.920011880389316</v>
@@ -23579,7 +23429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.612843539802274</v>
+        <v>1.542514497482087</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.978903852753562</v>
@@ -23668,7 +23518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611569139350708</v>
+        <v>1.536685249265166</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.995335596460523</v>
@@ -23757,7 +23607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631865441966506</v>
+        <v>1.55045338413659</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.747940527955828</v>
@@ -23846,7 +23696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.636810697442686</v>
+        <v>1.545044022039653</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.903829986014629</v>
@@ -23935,7 +23785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626899187654912</v>
+        <v>1.531673165662889</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.887911756296951</v>
@@ -24024,7 +23874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.602646229467878</v>
+        <v>1.512622765210708</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.921777244746522</v>
@@ -24113,7 +23963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.597193275988676</v>
+        <v>1.509727175621287</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.795557053984071</v>
@@ -24202,7 +24052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.609596287024686</v>
+        <v>1.524206562233051</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.648086694684824</v>
@@ -24291,7 +24141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.606474586590017</v>
+        <v>1.5227612332768</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.850368230339819</v>
@@ -24380,7 +24230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.629967847988793</v>
+        <v>1.545625426882962</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.378984379784983</v>
@@ -24469,7 +24319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630371838052314</v>
+        <v>1.546606607379468</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.981015879473849</v>
@@ -24558,7 +24408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611018322650357</v>
+        <v>1.535440496755806</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.167527459843455</v>
@@ -24647,7 +24497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.599081567075322</v>
+        <v>1.525289104893081</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.911153832374467</v>
@@ -24736,7 +24586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.591118229054475</v>
+        <v>1.517874834834077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.077600513145323</v>
@@ -24825,7 +24675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.583121206401456</v>
+        <v>1.506671586192733</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.369530253124366</v>
@@ -24914,7 +24764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.570572134157437</v>
+        <v>1.509489450514498</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.038458415404457</v>
@@ -25003,7 +24853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.555314446808289</v>
+        <v>1.497348404042899</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.974946692725755</v>
@@ -25092,7 +24942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.552601769023811</v>
+        <v>1.491473700913388</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.062023398596542</v>
@@ -25181,7 +25031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.546810555764346</v>
+        <v>1.486169907029077</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.804958949101559</v>
@@ -25270,7 +25120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.542619184112508</v>
+        <v>1.481277267115891</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.049140738593326</v>
@@ -25359,7 +25209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.555604061492303</v>
+        <v>1.488342135620709</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.757127808407038</v>
@@ -25448,7 +25298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.562720919254552</v>
+        <v>1.490745538704825</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.706994134584257</v>
@@ -25537,7 +25387,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.554429597223906</v>
+        <v>1.478581124484077</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.929011152055552</v>
@@ -25626,7 +25476,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.569209924755174</v>
+        <v>1.488827757577404</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.973560525118627</v>
@@ -25715,7 +25565,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.582660852424038</v>
+        <v>1.502732322354432</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.771498466777448</v>
@@ -25804,7 +25654,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.589363149733768</v>
+        <v>1.505289355906405</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.429487747127197</v>
@@ -25893,7 +25743,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.588407864491734</v>
+        <v>1.496084013978638</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.03063283940295</v>
@@ -25982,7 +25832,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.599265683700136</v>
+        <v>1.498708523721391</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.985573205606602</v>
@@ -26071,7 +25921,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.60590926612911</v>
+        <v>1.511372416058569</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.755541257571303</v>
@@ -26357,7 +26207,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.620935828884474</v>
+        <v>1.547959973131794</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.286318918046473</v>
@@ -26446,7 +26296,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.622255838067188</v>
+        <v>1.542723019595697</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.29633190672802</v>
@@ -26535,7 +26385,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.609485673512358</v>
+        <v>1.523508734009683</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.068038467005922</v>
@@ -26624,7 +26474,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.614715016407249</v>
+        <v>1.522856260506474</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.441553941533408</v>
@@ -26713,7 +26563,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.6116941678286</v>
+        <v>1.514681134469858</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.757547731845141</v>
@@ -26802,7 +26652,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.609735783064339</v>
+        <v>1.514291945702549</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.669591361467239</v>
@@ -26891,7 +26741,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.619057488449367</v>
+        <v>1.513868325810983</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.244908039294252</v>
@@ -26980,7 +26830,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.625130068863307</v>
+        <v>1.515537670890315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.089378157064052</v>
@@ -27069,7 +26919,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.617085892771079</v>
+        <v>1.510016927487797</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.127141401758442</v>
@@ -27158,7 +27008,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.624139580874455</v>
+        <v>1.513719177557742</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.352836762240997</v>
@@ -27247,7 +27097,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.641813811041659</v>
+        <v>1.526209589487913</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.954083436159653</v>
@@ -27336,7 +27186,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.642877556731929</v>
+        <v>1.525733329874674</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.367558527089187</v>
@@ -27425,7 +27275,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.65070147761024</v>
+        <v>1.538347084244077</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.083327458055964</v>
@@ -27514,7 +27364,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.653658333056102</v>
+        <v>1.540107132907835</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.143640057909525</v>
@@ -27603,7 +27453,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.67187165262746</v>
+        <v>1.545125172176459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.420918430579485</v>
@@ -27692,7 +27542,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.667749503309272</v>
+        <v>1.537268288699337</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.374994077431305</v>
@@ -27781,7 +27631,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.661365807412454</v>
+        <v>1.53214087940378</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.089974450532496</v>
@@ -27870,7 +27720,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.660583235033505</v>
+        <v>1.525356736599749</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.02770138793005</v>
@@ -27959,7 +27809,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.659743091476372</v>
+        <v>1.525830150641186</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.327403268656299</v>
@@ -28048,7 +27898,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.659427036772942</v>
+        <v>1.53072444173711</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.914452474664759</v>
@@ -28137,7 +27987,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.66387826056814</v>
+        <v>1.531924642228666</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.981112358566127</v>
@@ -28226,7 +28076,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.662958742899568</v>
+        <v>1.533268045541333</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.091210066561599</v>
@@ -28315,7 +28165,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.67022238449825</v>
+        <v>1.53893560392669</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.407231774060083</v>
@@ -28404,7 +28254,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.673225154467779</v>
+        <v>1.538033336071652</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.525239098805687</v>
@@ -28493,7 +28343,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.672583408724249</v>
+        <v>1.540650366701664</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.529311817789068</v>
@@ -28582,7 +28432,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.669081577033716</v>
+        <v>1.542155711972956</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.270314599822509</v>
@@ -28671,7 +28521,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.657155931570902</v>
+        <v>1.529665765176954</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.564512465839803</v>
@@ -28760,7 +28610,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.664769001969411</v>
+        <v>1.540987945637822</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.615423347241776</v>
@@ -28849,7 +28699,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.659138251235759</v>
+        <v>1.536771453154625</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.43900840671823</v>
@@ -28938,7 +28788,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657763329677504</v>
+        <v>1.537134867829625</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.269542979048178</v>
@@ -29027,7 +28877,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.658826551233929</v>
+        <v>1.547737695018104</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.58541279264356</v>
@@ -29116,7 +28966,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656038352769722</v>
+        <v>1.542693190340735</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.365712750653109</v>
@@ -29205,7 +29055,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.665484900358986</v>
+        <v>1.543876368611697</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.408343438492577</v>
@@ -29294,7 +29144,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.646533313980081</v>
+        <v>1.524947076642477</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.973426680633224</v>
@@ -29383,7 +29233,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.639606433516555</v>
+        <v>1.517428350647961</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.314744941870495</v>
@@ -29472,7 +29322,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.6466958124206</v>
+        <v>1.523194058582586</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.189123386744333</v>
@@ -29561,7 +29411,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.652879955512334</v>
+        <v>1.526834061278876</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.404223823074168</v>
@@ -29650,7 +29500,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.649900512610226</v>
+        <v>1.528590637528858</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.293815550985465</v>
@@ -29739,7 +29589,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.65272102975834</v>
+        <v>1.532115976979783</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.558122991133052</v>
@@ -29828,7 +29678,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.659097047834296</v>
+        <v>1.525502041557491</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.360660528337999</v>
@@ -29917,7 +29767,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.664245928018403</v>
+        <v>1.528823031851882</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.270409812640282</v>
@@ -30006,7 +29856,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.667361185440552</v>
+        <v>1.530282133819665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.342208946105356</v>
@@ -30095,7 +29945,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.666044271620535</v>
+        <v>1.52096143353546</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.512559842556585</v>
@@ -30184,7 +30034,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667199764795714</v>
+        <v>1.520003958631438</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.421764813567796</v>
@@ -30273,7 +30123,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.649510196052016</v>
+        <v>1.516098257088568</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.661516143387586</v>
@@ -30362,7 +30212,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.660382305053369</v>
+        <v>1.531259787448421</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.146901590441681</v>
@@ -30451,7 +30301,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671110517025403</v>
+        <v>1.546099087932642</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.038866180744542</v>
@@ -30540,7 +30390,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.660939108919999</v>
+        <v>1.537932996921026</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.830198219481031</v>
@@ -30629,7 +30479,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657202379305109</v>
+        <v>1.540834674630679</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.013777308823431</v>
@@ -30718,7 +30568,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.65338605332977</v>
+        <v>1.539819277131721</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.349725186492504</v>
@@ -30807,7 +30657,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651393954913289</v>
+        <v>1.541799198370311</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.213889814988831</v>
@@ -30896,7 +30746,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.645139340411781</v>
+        <v>1.54029009133123</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.400901869683055</v>
@@ -30985,7 +30835,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.645590387968947</v>
+        <v>1.542646912166288</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.890819075613818</v>
@@ -31074,7 +30924,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641474402375277</v>
+        <v>1.54075326633823</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.29605673713486</v>
@@ -31163,7 +31013,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.62937359004192</v>
+        <v>1.545726010903538</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.101400958312939</v>
@@ -31252,7 +31102,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.622576550860789</v>
+        <v>1.536010511412314</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.471490774944964</v>
@@ -31341,7 +31191,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.626407339145834</v>
+        <v>1.544276147530638</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.348350206868039</v>
@@ -31430,7 +31280,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.62203941655571</v>
+        <v>1.541232502103104</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.138547323910033</v>
@@ -31519,7 +31369,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.610471854456593</v>
+        <v>1.539676070074875</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.337336223391947</v>
@@ -31608,7 +31458,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.606616657343719</v>
+        <v>1.538352981546799</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.3308642495766</v>
@@ -31697,7 +31547,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.599549638972618</v>
+        <v>1.522238999563686</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.132018024585587</v>
@@ -31786,7 +31636,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.601492184439735</v>
+        <v>1.519286322453457</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.97517915154735</v>
@@ -31875,7 +31725,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.617794380008378</v>
+        <v>1.532059534950144</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.646022558699663</v>
@@ -31964,7 +31814,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.636844730328495</v>
+        <v>1.542140069807349</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.344428972799773</v>
@@ -32053,7 +31903,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.638687703634038</v>
+        <v>1.538186023436005</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.999367545503611</v>
@@ -32142,7 +31992,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639395235130097</v>
+        <v>1.540377595830774</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.337249277263503</v>
@@ -32231,7 +32081,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.634782790987147</v>
+        <v>1.53629102503961</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.337970240028038</v>
@@ -32320,7 +32170,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.630154900194667</v>
+        <v>1.528453751352067</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.194143818733709</v>
@@ -32606,7 +32456,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.482634549478464</v>
+        <v>1.446465167712468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.716479688984818</v>
@@ -32695,7 +32545,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.501794450594136</v>
+        <v>1.454086989403751</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.819866095332957</v>
@@ -32784,7 +32634,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.492682092723223</v>
+        <v>1.436485637156679</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.593392593939726</v>
@@ -32873,7 +32723,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.512200840368369</v>
+        <v>1.444563207976946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.057688543055899</v>
@@ -32962,7 +32812,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.52450807089267</v>
+        <v>1.452189667707854</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.088169728610679</v>
@@ -33051,7 +32901,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.506893473001657</v>
+        <v>1.43482157238397</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.823324751227316</v>
@@ -33140,7 +32990,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.519954511264314</v>
+        <v>1.443711629395389</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.875788091061398</v>
@@ -33229,7 +33079,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543140019391413</v>
+        <v>1.454911140574491</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.524198362385182</v>
@@ -33318,7 +33168,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529673932638431</v>
+        <v>1.45560696988664</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.751387708405417</v>
@@ -33407,7 +33257,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.547916857390098</v>
+        <v>1.469498561928779</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.730918418542451</v>
@@ -33496,7 +33346,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562755493184577</v>
+        <v>1.474739320702169</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.508382964729928</v>
@@ -33585,7 +33435,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.566228441161636</v>
+        <v>1.486693846642245</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.6954112335653</v>
@@ -33674,7 +33524,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.574456986734343</v>
+        <v>1.495156966766929</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.757270968640034</v>
@@ -33763,7 +33613,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.576329768337888</v>
+        <v>1.504045528874331</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.912124181752408</v>
@@ -33852,7 +33702,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.588805048249545</v>
+        <v>1.515672581053728</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.807291345500506</v>
@@ -33941,7 +33791,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.565716297951698</v>
+        <v>1.494692857994898</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.773736175721857</v>
@@ -34030,7 +33880,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.563765763914648</v>
+        <v>1.496291403673912</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.6153257871505</v>
@@ -34119,7 +33969,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549099118295782</v>
+        <v>1.486029409529024</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.634618111381002</v>
@@ -34208,7 +34058,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.559378323813079</v>
+        <v>1.498609302621146</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.731504660338834</v>
@@ -34297,7 +34147,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.553110230941673</v>
+        <v>1.498459923665258</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.692964287818101</v>
@@ -34386,7 +34236,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573602589005143</v>
+        <v>1.518218292157246</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.854251040900277</v>
@@ -34475,7 +34325,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571343399155707</v>
+        <v>1.524687059568775</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.819178914084171</v>
@@ -34564,7 +34414,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574134887147055</v>
+        <v>1.534272671255232</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.941941125457335</v>
@@ -34653,7 +34503,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.569391461666204</v>
+        <v>1.529696251646751</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.797150604012383</v>
@@ -34742,7 +34592,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.549606249490421</v>
+        <v>1.516884296461671</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.808288511767934</v>
@@ -34831,7 +34681,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.54902019737578</v>
+        <v>1.520934866181268</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.725140363025329</v>
@@ -34920,7 +34770,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557345700282871</v>
+        <v>1.529535320699677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.870482013368401</v>
@@ -35009,7 +34859,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.570107962805703</v>
+        <v>1.543327435689263</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.594838718275617</v>
@@ -35098,7 +34948,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.556550823984004</v>
+        <v>1.528996454725775</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.811350529564324</v>
@@ -35187,7 +35037,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557257862605185</v>
+        <v>1.527240991024369</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.867626262666298</v>
@@ -35276,7 +35126,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.568337499872571</v>
+        <v>1.540965266472483</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.060009648109745</v>
@@ -35365,7 +35215,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.561071353284187</v>
+        <v>1.523689334845715</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.100045793406741</v>
@@ -35454,7 +35304,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.557506659515618</v>
+        <v>1.515384755173758</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.081312454407065</v>
@@ -35543,7 +35393,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545117728616133</v>
+        <v>1.486661424100083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.812147250302581</v>
@@ -35632,7 +35482,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522605405041485</v>
+        <v>1.475739062369587</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.559874331824827</v>
@@ -35721,7 +35571,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52418998005945</v>
+        <v>1.477155170873483</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.694553155314737</v>
@@ -35810,7 +35660,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.520893975894147</v>
+        <v>1.470703497113072</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.819552157655828</v>
@@ -35899,7 +35749,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.50758077661982</v>
+        <v>1.453254207739396</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.505468570745138</v>
@@ -35988,7 +35838,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.515883680156782</v>
+        <v>1.461427920432321</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.419297731703153</v>
@@ -36077,7 +35927,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.526846452349701</v>
+        <v>1.471795901473919</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.645650444802909</v>
@@ -36166,7 +36016,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.532134861559064</v>
+        <v>1.47860169787174</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.541858664618763</v>
@@ -36255,7 +36105,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.531548679016095</v>
+        <v>1.472309966186602</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.427433501403507</v>
@@ -36344,7 +36194,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.536945375475637</v>
+        <v>1.469790737381722</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.211282117548864</v>
@@ -36433,7 +36283,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.515418532104899</v>
+        <v>1.444821506308809</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.218349458311946</v>
@@ -36522,7 +36372,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.509628797839015</v>
+        <v>1.442008721078781</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.334394094039142</v>
@@ -36611,7 +36461,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521210098966542</v>
+        <v>1.456175431745618</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.322501580844894</v>
@@ -36700,7 +36550,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.534608037343772</v>
+        <v>1.474488764488032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.153163920938359</v>
@@ -36789,7 +36639,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547650376288383</v>
+        <v>1.485477567385483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.29607159594818</v>
@@ -36878,7 +36728,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556665043881627</v>
+        <v>1.502826289047244</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.479718998223882</v>
@@ -36967,7 +36817,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.566070666770937</v>
+        <v>1.514856956190529</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.313678105923317</v>
@@ -37056,7 +36906,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.549458407571779</v>
+        <v>1.503490977388396</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.225760341741648</v>
@@ -37145,7 +36995,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.552111518251142</v>
+        <v>1.50368108147785</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.26079442563801</v>
@@ -37234,7 +37084,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561490887398109</v>
+        <v>1.511013337559269</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.335024397625938</v>
@@ -37323,7 +37173,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.561722939578378</v>
+        <v>1.507351177856724</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.286185760479399</v>
@@ -37412,7 +37262,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.560475108594436</v>
+        <v>1.50248578604115</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.251804326509756</v>
@@ -37501,7 +37351,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.548151155368539</v>
+        <v>1.492722876777521</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.281772636416868</v>
@@ -37590,7 +37440,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.547223962442326</v>
+        <v>1.493567873850174</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.3604016195582</v>
@@ -37679,7 +37529,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.565441064352593</v>
+        <v>1.508452239465351</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.08614915536952</v>
@@ -37768,7 +37618,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.570154417154439</v>
+        <v>1.518311544597005</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.608525512479988</v>
@@ -37857,7 +37707,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.571566723106069</v>
+        <v>1.524611606066626</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.750795526854706</v>
@@ -37946,7 +37796,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.563136072414355</v>
+        <v>1.508523221125109</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.703605511289814</v>
@@ -38035,7 +37885,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.54687110061509</v>
+        <v>1.491677609847697</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.732168698396532</v>
@@ -38124,7 +37974,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.565268064624584</v>
+        <v>1.506282503966782</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.323725484963336</v>
@@ -38213,7 +38063,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.574897957053099</v>
+        <v>1.506103482820413</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.912855368014037</v>
@@ -38302,7 +38152,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.567561421368038</v>
+        <v>1.484334674040717</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.793700830787303</v>
@@ -38391,7 +38241,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.56907810116714</v>
+        <v>1.487620764581549</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.902836083301372</v>
@@ -38480,7 +38330,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.572249015113685</v>
+        <v>1.493859184084346</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.07170805894266</v>
@@ -38569,7 +38419,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.583341095629908</v>
+        <v>1.506543535256474</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.120497466469475</v>
@@ -38855,7 +38705,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.252037544188376</v>
+        <v>1.240634057658256</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.274878155468908</v>
@@ -38944,7 +38794,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.261286941897543</v>
+        <v>1.244871027770678</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.153437957586492</v>
@@ -39033,7 +38883,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.273993680473158</v>
+        <v>1.255782582400488</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.992832365538335</v>
@@ -39122,7 +38972,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.270399817717813</v>
+        <v>1.253227562757434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.360250205337604</v>
@@ -39211,7 +39061,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.29035613956338</v>
+        <v>1.269184925372888</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.30392470804827</v>
@@ -39300,7 +39150,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.2937712945368</v>
+        <v>1.273007174427266</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.290326072130942</v>
@@ -39389,7 +39239,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.317269250218527</v>
+        <v>1.294603602925396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.237342198878109</v>
@@ -39478,7 +39328,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.337942625105361</v>
+        <v>1.306497972133849</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.985181334058999</v>
@@ -39567,7 +39417,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.317804370135317</v>
+        <v>1.295514771892737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168452842411966</v>
@@ -39656,7 +39506,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.346160354907536</v>
+        <v>1.317882286628756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.055261985888087</v>
@@ -39745,7 +39595,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.366399591489</v>
+        <v>1.336528708928901</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.001281173163608</v>
@@ -39834,7 +39684,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.37823800632934</v>
+        <v>1.346536200407455</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.148543502351958</v>
@@ -39923,7 +39773,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.396078033689141</v>
+        <v>1.361626361620445</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.118989225614937</v>
@@ -40012,7 +39862,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.383396016555018</v>
+        <v>1.363069423537272</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.237271787238967</v>
@@ -40101,7 +39951,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.388668186460012</v>
+        <v>1.36493180960681</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.265274300818246</v>
@@ -40190,7 +40040,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.365534618701532</v>
+        <v>1.345260450573266</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.326054780831856</v>
@@ -40279,7 +40129,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.370552199801463</v>
+        <v>1.346998208673916</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.247827353822104</v>
@@ -40368,7 +40218,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.372000891490554</v>
+        <v>1.348286344043475</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.112419498957301</v>
@@ -40457,7 +40307,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.394621755328051</v>
+        <v>1.364957984451237</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.2120552183926</v>
@@ -40546,7 +40396,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.367468384055818</v>
+        <v>1.351013793304921</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.141700765200715</v>
@@ -40635,7 +40485,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.395189914628735</v>
+        <v>1.377156693816814</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.238237674114799</v>
@@ -40724,7 +40574,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.392270029324445</v>
+        <v>1.377904595236904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.305086638773264</v>
@@ -40813,7 +40663,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.406037969875829</v>
+        <v>1.385250699690563</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.026481838353383</v>
@@ -40902,7 +40752,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.412915803489133</v>
+        <v>1.392241460396049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.295289380094655</v>
@@ -40991,7 +40841,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.410730770451387</v>
+        <v>1.393475283258444</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.319884375647008</v>
@@ -41080,7 +40930,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.409536892139539</v>
+        <v>1.39526541597546</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.277478165569259</v>
@@ -41169,7 +41019,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.415345657321132</v>
+        <v>1.400463472636158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.31869255873254</v>
@@ -41258,7 +41108,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.437797415322964</v>
+        <v>1.426157337744919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.122331848855225</v>
@@ -41347,7 +41197,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.424925318553782</v>
+        <v>1.414422276279971</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.389630527809259</v>
@@ -41436,7 +41286,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.425694218741779</v>
+        <v>1.41760612439614</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.330280836109963</v>
@@ -41525,7 +41375,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425736213767041</v>
+        <v>1.423819365998889</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.161511721361862</v>
@@ -41614,7 +41464,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.428180169428552</v>
+        <v>1.423951498174225</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.246359480651448</v>
@@ -41703,7 +41553,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.423123285804784</v>
+        <v>1.418059524806575</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.264042364020411</v>
@@ -41792,7 +41642,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.440553933391645</v>
+        <v>1.410052100338454</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.007965358198667</v>
@@ -41881,7 +41731,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.417470679414938</v>
+        <v>1.402655900643546</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.257753147513507</v>
@@ -41970,7 +41820,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.413929064212914</v>
+        <v>1.398663918172043</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.17038292207027</v>
@@ -42059,7 +41909,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.406134961873854</v>
+        <v>1.391332734584775</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.236278431438122</v>
@@ -42148,7 +41998,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.383782707809772</v>
+        <v>1.372156995187873</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.170561885320853</v>
@@ -42237,7 +42087,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.392504088951469</v>
+        <v>1.37935358871667</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.18810910905252</v>
@@ -42326,7 +42176,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395725794156087</v>
+        <v>1.378469886516838</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.251957979810929</v>
@@ -42415,7 +42265,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.403045345006715</v>
+        <v>1.381630878236947</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.222781277375312</v>
@@ -42504,7 +42354,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.406807044165906</v>
+        <v>1.380855996301339</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.322838353054095</v>
@@ -42593,7 +42443,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.413794647209812</v>
+        <v>1.383250678558679</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.219462365604658</v>
@@ -42682,7 +42532,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.391086615354358</v>
+        <v>1.354659213830461</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.110448658075339</v>
@@ -42771,7 +42621,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.362796897302388</v>
+        <v>1.333091377020954</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.168397256119453</v>
@@ -42860,7 +42710,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.387886195744681</v>
+        <v>1.353502766124468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.069716723174226</v>
@@ -42949,7 +42799,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.401308025109498</v>
+        <v>1.36915125184232</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.210519880504206</v>
@@ -43038,7 +42888,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.418473348303397</v>
+        <v>1.375378054475175</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.152032762582525</v>
@@ -43127,7 +42977,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.392067896914603</v>
+        <v>1.355719553512907</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.965642794629339</v>
@@ -43216,7 +43066,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.387000766051758</v>
+        <v>1.353008903185082</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.189078712642204</v>
@@ -43305,7 +43155,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.371139161168231</v>
+        <v>1.340963845227639</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.109818206733101</v>
@@ -43394,7 +43244,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.37544897445827</v>
+        <v>1.342708466641045</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.231172936110934</v>
@@ -43483,7 +43333,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.370163809579348</v>
+        <v>1.338786626243691</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.178412173276144</v>
@@ -43572,7 +43422,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.368609996743691</v>
+        <v>1.33518788951419</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.219057830003516</v>
@@ -43661,7 +43511,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.363970555653585</v>
+        <v>1.335349866219426</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.169084897547305</v>
@@ -43750,7 +43600,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.342978619430038</v>
+        <v>1.320893068926124</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.2039660682604</v>
@@ -43839,7 +43689,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.337070765937287</v>
+        <v>1.315964805296198</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.191608157115756</v>
@@ -43928,7 +43778,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.351573832331577</v>
+        <v>1.328839657832604</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.007285610011691</v>
@@ -44017,7 +43867,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.360673023820443</v>
+        <v>1.335026622655594</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.033121089020543</v>
@@ -44106,7 +43956,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.359224727591622</v>
+        <v>1.334855384882442</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.223581072369855</v>
@@ -44195,7 +44045,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.360024119762084</v>
+        <v>1.329802380151207</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.226238160585572</v>
@@ -44284,7 +44134,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.354562918105721</v>
+        <v>1.320409614275729</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.251580803052196</v>
@@ -44373,7 +44223,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.368588610231093</v>
+        <v>1.335530210597978</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.036392752108562</v>
@@ -44462,7 +44312,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.397984682422028</v>
+        <v>1.357375984688642</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.159491527194375</v>
@@ -44551,7 +44401,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.428779462581921</v>
+        <v>1.367935722970938</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.950728956860357</v>
@@ -44640,7 +44490,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.414472529243964</v>
+        <v>1.357511344094981</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.218220869107391</v>
@@ -44729,7 +44579,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.407423221500755</v>
+        <v>1.35232466274521</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.032142386114791</v>
@@ -44818,7 +44668,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.4187256690182</v>
+        <v>1.365927921578973</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.316849480677895</v>
